--- a/resources/experiment 1/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3128085230170806</v>
+        <v>3128315078485088</v>
       </c>
       <c r="C2" t="n">
-        <v>3128085230170806</v>
+        <v>3128315078485089</v>
       </c>
       <c r="D2" t="n">
-        <v>3128085230170806</v>
+        <v>3128315078485089</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4475750253381.601</v>
+        <v>9305033831737.779</v>
       </c>
       <c r="C3" t="n">
-        <v>4530622187161.476</v>
+        <v>5788009779664.292</v>
       </c>
       <c r="D3" t="n">
-        <v>4530622187161.476</v>
+        <v>4380131092985.438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19113068266959.16</v>
+        <v>2505915285617.425</v>
       </c>
       <c r="C4" t="n">
-        <v>16561812775062.22</v>
+        <v>2505915285617.425</v>
       </c>
       <c r="D4" t="n">
-        <v>16561812775062.22</v>
+        <v>2427605432941.882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183870788588817.2</v>
+        <v>96834530933064.5</v>
       </c>
       <c r="C5" t="n">
-        <v>183870788588817.2</v>
+        <v>176904018845061.4</v>
       </c>
       <c r="D5" t="n">
-        <v>183870788588817.2</v>
+        <v>185001067515417.7</v>
       </c>
     </row>
   </sheetData>
